--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/14_245-70R19.xlsx
@@ -19,7 +19,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="96">
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -544,15 +664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:BW6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:75">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +776,130 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:75">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,34 +908,34 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.217234168501892</v>
+        <v>0.1940155542622882</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3504908067497713</v>
+        <v>0.3392474511816232</v>
       </c>
       <c r="G2">
-        <v>0.05576483577687857</v>
+        <v>0.0878140317965755</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01422679335881899</v>
       </c>
       <c r="I2">
-        <v>0.02176039529199773</v>
+        <v>0.006273779470431455</v>
       </c>
       <c r="J2">
-        <v>0.1035894472977823</v>
+        <v>0.006028269844287938</v>
       </c>
       <c r="K2">
-        <v>0.08734218701827105</v>
+        <v>0.05838494078020766</v>
       </c>
       <c r="L2">
-        <v>0.02560359552154</v>
+        <v>0.03377528596053066</v>
       </c>
       <c r="M2">
-        <v>0.05249823195440134</v>
+        <v>0.0907811810647124</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -707,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.005825745498720536</v>
+        <v>0.05819657903087144</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001917348700862494</v>
+        <v>0.02865965913655799</v>
       </c>
       <c r="T2">
-        <v>0.002339254385138458</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001556806186367774</v>
+        <v>0.002216946208786374</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.009434243121141149</v>
+        <v>0.003520056403477351</v>
       </c>
       <c r="X2">
-        <v>0.06464293399523534</v>
+        <v>0.07664871420946667</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -746,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.0002107572913639736</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -763,10 +1003,130 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:75">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,34 +1135,34 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1453692865860276</v>
+        <v>0.1218159045639116</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03095808944869919</v>
       </c>
       <c r="F3">
-        <v>0.4097296600829234</v>
+        <v>0.2827305252042379</v>
       </c>
       <c r="G3">
-        <v>0.1392020536359246</v>
+        <v>0.07737304848583838</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03179960022952195</v>
       </c>
       <c r="I3">
-        <v>0.03281280833733131</v>
+        <v>0.04475661203244071</v>
       </c>
       <c r="J3">
-        <v>0.0351041378439834</v>
+        <v>0.002037863941753427</v>
       </c>
       <c r="K3">
-        <v>0.1174080381337903</v>
+        <v>0.05361472734005675</v>
       </c>
       <c r="L3">
-        <v>0.0326936125472606</v>
+        <v>0.00387707837235264</v>
       </c>
       <c r="M3">
-        <v>0.02837291264631692</v>
+        <v>0.1250916925686556</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -811,22 +1171,22 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.01704584274972628</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.02930257723319407</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.03265146082847361</v>
       </c>
       <c r="S3">
-        <v>0.003181866290207317</v>
+        <v>0.01040181385349309</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.02432374037668651</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -835,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.04016895415236196</v>
+        <v>0.08023883079763677</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.01090086718620399</v>
       </c>
       <c r="Z3">
-        <v>0.005342167077639329</v>
+        <v>0.00309348580104102</v>
       </c>
       <c r="AA3">
-        <v>0.006351985133841842</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -853,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004262517532391602</v>
+        <v>0.01798623898607665</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -870,10 +1230,130 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:75">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,73 +1362,73 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2690150026122948</v>
+        <v>0.228880639461207</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3353905939507546</v>
+        <v>0.2220206205905406</v>
       </c>
       <c r="G4">
-        <v>0.07476234045099854</v>
+        <v>0.07755878506523597</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.06425435874916403</v>
       </c>
       <c r="I4">
-        <v>0.02386556473686351</v>
+        <v>0.006196829658306252</v>
       </c>
       <c r="J4">
-        <v>0.07050584440094641</v>
+        <v>0.02164362545079477</v>
       </c>
       <c r="K4">
-        <v>0.0680924629307352</v>
+        <v>0.04953220788841547</v>
       </c>
       <c r="L4">
-        <v>0.03830617590257463</v>
+        <v>0.09930958203380956</v>
       </c>
       <c r="M4">
-        <v>0.02085640974895528</v>
+        <v>0.08108576812940003</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02528139249364771</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.008864135052506812</v>
+        <v>0.04922445648771618</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0003160175829059464</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.003246951125483205</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01567707021917684</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.004681406040617412</v>
+        <v>0.0006678570338114117</v>
       </c>
       <c r="X4">
-        <v>0.0566689991761491</v>
+        <v>0.06685117302443166</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.005944307944490555</v>
       </c>
       <c r="Z4">
-        <v>0.009171152382554873</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -975,12 +1455,132 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0005798736864826206</v>
+        <v>0.001548395989028842</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:75">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,46 +1589,46 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3364830122524743</v>
+        <v>0.3184705040287059</v>
       </c>
       <c r="E5">
-        <v>0.009558906841397043</v>
+        <v>0.00692402801008828</v>
       </c>
       <c r="F5">
-        <v>0.3430906671741263</v>
+        <v>0.1805447619958618</v>
       </c>
       <c r="G5">
-        <v>0.06753004201185391</v>
+        <v>0.07199324900159371</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.06984664268961012</v>
       </c>
       <c r="I5">
-        <v>0.0127349146499269</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0707021574696042</v>
+        <v>0.01705057445501929</v>
       </c>
       <c r="K5">
-        <v>0.07073621963472555</v>
+        <v>0.0267521704450123</v>
       </c>
       <c r="L5">
-        <v>0.03764013615558564</v>
+        <v>0.123912119845524</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02194545950800035</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.03905954338684282</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.05260869977936906</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1040,22 +1640,22 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001966921476296481</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.000531814394979118</v>
+        <v>0.006816047173519204</v>
       </c>
       <c r="X5">
-        <v>0.03599579593237168</v>
+        <v>0.0528064404145689</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.006466729491490759</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1067,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003175709722137674</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1082,12 +1682,132 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.006245111542954446</v>
+        <v>0.01126975926628448</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:75">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2621932205352391</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1533255193969241</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2559555526332172</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002142178735575715</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1114,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1432903213833831</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.05676811355763001</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05297040957461657</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1144,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.007113782842906468</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.02315254481328081</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.02754572501174548</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.005177903234059887</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1189,7 +1909,127 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01036472828142171</v>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0.3520004947627225</v>
+      </c>
+      <c r="AS6">
+        <v>0.1085204826728487</v>
+      </c>
+      <c r="AT6">
+        <v>0.2421620607511594</v>
+      </c>
+      <c r="AU6">
+        <v>0.006895485402914599</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0.08466679715459408</v>
+      </c>
+      <c r="AY6">
+        <v>0.0132682446850148</v>
+      </c>
+      <c r="AZ6">
+        <v>0.05907027622311793</v>
+      </c>
+      <c r="BA6">
+        <v>0.001052636461903585</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0.008387843701589636</v>
+      </c>
+      <c r="BD6">
+        <v>0.003182275128318377</v>
+      </c>
+      <c r="BE6">
+        <v>0.03111757290017159</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0.008892936494895655</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0.040155645371403</v>
+      </c>
+      <c r="BL6">
+        <v>0.01546394672498496</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0.02516330156436128</v>
       </c>
     </row>
   </sheetData>
@@ -1199,15 +2039,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:BW6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:75">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +2151,130 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:75">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,82 +2283,82 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.217234168501892</v>
+        <v>0.1940155542622882</v>
       </c>
       <c r="E2">
-        <v>0.217234168501892</v>
+        <v>0.1940155542622882</v>
       </c>
       <c r="F2">
-        <v>0.5677249752516633</v>
+        <v>0.5332630054439114</v>
       </c>
       <c r="G2">
-        <v>0.6234898110285418</v>
+        <v>0.6210770372404869</v>
       </c>
       <c r="H2">
-        <v>0.6234898110285418</v>
+        <v>0.635303830599306</v>
       </c>
       <c r="I2">
-        <v>0.6452502063205395</v>
+        <v>0.6415776100697375</v>
       </c>
       <c r="J2">
-        <v>0.7488396536183218</v>
+        <v>0.6476058799140254</v>
       </c>
       <c r="K2">
-        <v>0.8361818406365928</v>
+        <v>0.705990820694233</v>
       </c>
       <c r="L2">
-        <v>0.8617854361581329</v>
+        <v>0.7397661066547637</v>
       </c>
       <c r="M2">
-        <v>0.9142836681125341</v>
+        <v>0.8305472877194762</v>
       </c>
       <c r="N2">
-        <v>0.9142836681125341</v>
+        <v>0.8305472877194762</v>
       </c>
       <c r="O2">
-        <v>0.9142836681125341</v>
+        <v>0.8305472877194762</v>
       </c>
       <c r="P2">
-        <v>0.9142836681125341</v>
+        <v>0.8305472877194762</v>
       </c>
       <c r="Q2">
-        <v>0.9201094136112546</v>
+        <v>0.8887438667503476</v>
       </c>
       <c r="R2">
-        <v>0.9201094136112546</v>
+        <v>0.8887438667503476</v>
       </c>
       <c r="S2">
-        <v>0.9220267623121171</v>
+        <v>0.9174035258869055</v>
       </c>
       <c r="T2">
-        <v>0.9243660166972556</v>
+        <v>0.9174035258869055</v>
       </c>
       <c r="U2">
-        <v>0.9259228228836234</v>
+        <v>0.919620472095692</v>
       </c>
       <c r="V2">
-        <v>0.9259228228836234</v>
+        <v>0.919620472095692</v>
       </c>
       <c r="W2">
-        <v>0.9353570660047645</v>
+        <v>0.9231405284991693</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999999</v>
+        <v>0.9997892427086359</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999999</v>
+        <v>0.9997892427086359</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999999</v>
+        <v>0.9997892427086359</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999999</v>
+        <v>0.9997892427086359</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999999</v>
+        <v>0.9997892427086359</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9997892427086359</v>
       </c>
       <c r="AD2">
         <v>0.9999999999999999</v>
@@ -1418,10 +2378,130 @@
       <c r="AI2">
         <v>0.9999999999999999</v>
       </c>
+      <c r="AJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:75">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1430,82 +2510,82 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1453692865860276</v>
+        <v>0.1218159045639116</v>
       </c>
       <c r="E3">
-        <v>0.1453692865860276</v>
+        <v>0.1527739940126108</v>
       </c>
       <c r="F3">
-        <v>0.5550989466689511</v>
+        <v>0.4355045192168486</v>
       </c>
       <c r="G3">
-        <v>0.6943010003048756</v>
+        <v>0.512877567702687</v>
       </c>
       <c r="H3">
-        <v>0.6943010003048756</v>
+        <v>0.544677167932209</v>
       </c>
       <c r="I3">
-        <v>0.727113808642207</v>
+        <v>0.5894337799646497</v>
       </c>
       <c r="J3">
-        <v>0.7622179464861903</v>
+        <v>0.5914716439064032</v>
       </c>
       <c r="K3">
-        <v>0.8796259846199806</v>
+        <v>0.64508637124646</v>
       </c>
       <c r="L3">
-        <v>0.9123195971672412</v>
+        <v>0.6489634496188126</v>
       </c>
       <c r="M3">
-        <v>0.9406925098135581</v>
+        <v>0.7740551421874682</v>
       </c>
       <c r="N3">
-        <v>0.9406925098135581</v>
+        <v>0.7740551421874682</v>
       </c>
       <c r="O3">
-        <v>0.9406925098135581</v>
+        <v>0.7740551421874682</v>
       </c>
       <c r="P3">
-        <v>0.9406925098135581</v>
+        <v>0.7911009849371945</v>
       </c>
       <c r="Q3">
-        <v>0.9406925098135581</v>
+        <v>0.8204035621703886</v>
       </c>
       <c r="R3">
-        <v>0.9406925098135581</v>
+        <v>0.8530550229988622</v>
       </c>
       <c r="S3">
-        <v>0.9438743761037655</v>
+        <v>0.8634568368523552</v>
       </c>
       <c r="T3">
-        <v>0.9438743761037655</v>
+        <v>0.8634568368523552</v>
       </c>
       <c r="U3">
-        <v>0.9438743761037655</v>
+        <v>0.8877805772290417</v>
       </c>
       <c r="V3">
-        <v>0.9438743761037655</v>
+        <v>0.8877805772290417</v>
       </c>
       <c r="W3">
-        <v>0.9438743761037655</v>
+        <v>0.8877805772290417</v>
       </c>
       <c r="X3">
-        <v>0.9840433302561274</v>
+        <v>0.9680194080266784</v>
       </c>
       <c r="Y3">
-        <v>0.9840433302561274</v>
+        <v>0.9789202752128824</v>
       </c>
       <c r="Z3">
-        <v>0.9893854973337668</v>
+        <v>0.9820137610139235</v>
       </c>
       <c r="AA3">
-        <v>0.9957374824676086</v>
+        <v>0.9820137610139235</v>
       </c>
       <c r="AB3">
-        <v>0.9957374824676086</v>
+        <v>0.9820137610139235</v>
       </c>
       <c r="AC3">
-        <v>0.9957374824676086</v>
+        <v>0.9820137610139235</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -1525,10 +2605,130 @@
       <c r="AI3">
         <v>1</v>
       </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
+      </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:75">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1537,105 +2737,225 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2690150026122948</v>
+        <v>0.228880639461207</v>
       </c>
       <c r="E4">
-        <v>0.2690150026122948</v>
+        <v>0.228880639461207</v>
       </c>
       <c r="F4">
-        <v>0.6044055965630494</v>
+        <v>0.4509012600517476</v>
       </c>
       <c r="G4">
-        <v>0.6791679370140479</v>
+        <v>0.5284600451169836</v>
       </c>
       <c r="H4">
-        <v>0.6791679370140479</v>
+        <v>0.5927144038661477</v>
       </c>
       <c r="I4">
-        <v>0.7030335017509114</v>
+        <v>0.598911233524454</v>
       </c>
       <c r="J4">
-        <v>0.7735393461518578</v>
+        <v>0.6205548589752488</v>
       </c>
       <c r="K4">
-        <v>0.8416318090825931</v>
+        <v>0.6700870668636643</v>
       </c>
       <c r="L4">
-        <v>0.8799379849851677</v>
+        <v>0.7693966488974738</v>
       </c>
       <c r="M4">
-        <v>0.900794394734123</v>
+        <v>0.8504824170268739</v>
       </c>
       <c r="N4">
-        <v>0.900794394734123</v>
+        <v>0.8504824170268739</v>
       </c>
       <c r="O4">
-        <v>0.900794394734123</v>
+        <v>0.8757638095205216</v>
       </c>
       <c r="P4">
-        <v>0.900794394734123</v>
+        <v>0.8757638095205216</v>
       </c>
       <c r="Q4">
-        <v>0.9096585297866299</v>
+        <v>0.9249882660082378</v>
       </c>
       <c r="R4">
-        <v>0.9096585297866299</v>
+        <v>0.9249882660082378</v>
       </c>
       <c r="S4">
-        <v>0.9099745473695358</v>
+        <v>0.9249882660082378</v>
       </c>
       <c r="T4">
-        <v>0.913221498495019</v>
+        <v>0.9249882660082378</v>
       </c>
       <c r="U4">
-        <v>0.9288985687141958</v>
+        <v>0.9249882660082378</v>
       </c>
       <c r="V4">
-        <v>0.9288985687141958</v>
+        <v>0.9249882660082378</v>
       </c>
       <c r="W4">
-        <v>0.9335799747548132</v>
+        <v>0.9256561230420493</v>
       </c>
       <c r="X4">
-        <v>0.9902489739309623</v>
+        <v>0.9925072960664809</v>
       </c>
       <c r="Y4">
-        <v>0.9902489739309623</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="Z4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AA4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AB4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AC4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AD4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AE4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AF4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AG4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AH4">
-        <v>0.9994201263135172</v>
+        <v>0.9984516040109714</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:75">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1644,105 +2964,225 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3364830122524743</v>
+        <v>0.3184705040287059</v>
       </c>
       <c r="E5">
-        <v>0.3460419190938713</v>
+        <v>0.3253945320387941</v>
       </c>
       <c r="F5">
-        <v>0.6891325862679976</v>
+        <v>0.5059392940346559</v>
       </c>
       <c r="G5">
-        <v>0.7566626282798514</v>
+        <v>0.5779325430362496</v>
       </c>
       <c r="H5">
-        <v>0.7566626282798514</v>
+        <v>0.6477791857258598</v>
       </c>
       <c r="I5">
-        <v>0.7693975429297784</v>
+        <v>0.6477791857258598</v>
       </c>
       <c r="J5">
-        <v>0.8400997003993825</v>
+        <v>0.6648297601808791</v>
       </c>
       <c r="K5">
-        <v>0.9108359200341081</v>
+        <v>0.6915819306258915</v>
       </c>
       <c r="L5">
-        <v>0.9484760561896937</v>
+        <v>0.8154940504714154</v>
       </c>
       <c r="M5">
-        <v>0.9484760561896937</v>
+        <v>0.8374395099794157</v>
       </c>
       <c r="N5">
-        <v>0.9484760561896937</v>
+        <v>0.8374395099794157</v>
       </c>
       <c r="O5">
-        <v>0.9484760561896937</v>
+        <v>0.8764990533662586</v>
       </c>
       <c r="P5">
-        <v>0.9484760561896937</v>
+        <v>0.8764990533662586</v>
       </c>
       <c r="Q5">
-        <v>0.9484760561896937</v>
+        <v>0.9291077531456277</v>
       </c>
       <c r="R5">
-        <v>0.9484760561896937</v>
+        <v>0.9291077531456277</v>
       </c>
       <c r="S5">
-        <v>0.9484760561896937</v>
+        <v>0.9291077531456277</v>
       </c>
       <c r="T5">
-        <v>0.9484760561896937</v>
+        <v>0.9291077531456277</v>
       </c>
       <c r="U5">
-        <v>0.9504429776659902</v>
+        <v>0.9291077531456277</v>
       </c>
       <c r="V5">
-        <v>0.9504429776659902</v>
+        <v>0.9291077531456277</v>
       </c>
       <c r="W5">
-        <v>0.9509747920609692</v>
+        <v>0.9359238003191469</v>
       </c>
       <c r="X5">
-        <v>0.9869705879933409</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="Y5">
-        <v>0.9869705879933409</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="Z5">
-        <v>0.9934373174848317</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AA5">
-        <v>0.9934373174848317</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AB5">
-        <v>0.9934373174848317</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AC5">
-        <v>0.9934373174848317</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AD5">
-        <v>0.9937548884570454</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AE5">
-        <v>0.9937548884570454</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AF5">
-        <v>0.9937548884570454</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AG5">
-        <v>0.9937548884570454</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AH5">
-        <v>0.9937548884570454</v>
+        <v>0.9887302407337158</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:75">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1751,100 +3191,220 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2621932205352391</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4155187399321632</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6714742925653803</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.673616471300956</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.673616471300956</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.673616471300956</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.8169067926843391</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8736749062419691</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9266453158165856</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9266453158165856</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9266453158165856</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9266453158165856</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9266453158165856</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9266453158165856</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.9266453158165856</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.9266453158165856</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.933759098659492</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.933759098659492</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.933759098659492</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.9569116434727728</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.9844573684845183</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.9844573684845183</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9896352717185781</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0.3520004947627225</v>
+      </c>
+      <c r="AS6">
+        <v>0.4605209774355712</v>
+      </c>
+      <c r="AT6">
+        <v>0.7026830381867306</v>
+      </c>
+      <c r="AU6">
+        <v>0.7095785235896452</v>
+      </c>
+      <c r="AV6">
+        <v>0.7095785235896452</v>
+      </c>
+      <c r="AW6">
+        <v>0.7095785235896452</v>
+      </c>
+      <c r="AX6">
+        <v>0.7942453207442393</v>
+      </c>
+      <c r="AY6">
+        <v>0.807513565429254</v>
+      </c>
+      <c r="AZ6">
+        <v>0.8665838416523719</v>
+      </c>
+      <c r="BA6">
+        <v>0.8676364781142755</v>
+      </c>
+      <c r="BB6">
+        <v>0.8676364781142755</v>
+      </c>
+      <c r="BC6">
+        <v>0.8760243218158651</v>
+      </c>
+      <c r="BD6">
+        <v>0.8792065969441835</v>
+      </c>
+      <c r="BE6">
+        <v>0.910324169844355</v>
+      </c>
+      <c r="BF6">
+        <v>0.910324169844355</v>
+      </c>
+      <c r="BG6">
+        <v>0.910324169844355</v>
+      </c>
+      <c r="BH6">
+        <v>0.9192171063392507</v>
+      </c>
+      <c r="BI6">
+        <v>0.9192171063392507</v>
+      </c>
+      <c r="BJ6">
+        <v>0.9192171063392507</v>
+      </c>
+      <c r="BK6">
+        <v>0.9593727517106537</v>
+      </c>
+      <c r="BL6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BM6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BN6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BO6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BP6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BR6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BS6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BT6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BU6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BV6">
+        <v>0.9748366984356387</v>
+      </c>
+      <c r="BW6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1862,48 +3422,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1918,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5677249752516633</v>
+        <v>0.5332630054439114</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1930,21 +3490,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1953,16 +3513,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.512877567702687</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5550989466689511</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -1971,21 +3531,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -1994,16 +3554,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5284600451169836</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6044055965630494</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -2012,21 +3572,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2041,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6891325862679976</v>
+        <v>0.5059392940346559</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2053,36 +3613,36 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6714742925653803</v>
+        <v>0.7026830381867306</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2094,16 +3654,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2121,48 +3681,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2171,16 +3731,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.705990820694233</v>
+      </c>
+      <c r="G2">
         <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7488396536183218</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -2189,21 +3749,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2212,16 +3772,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.727113808642207</v>
+        <v>0.7740551421874682</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -2230,21 +3790,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2253,16 +3813,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7030335017509114</v>
+        <v>0.7693966488974738</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -2271,21 +3831,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2294,16 +3854,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7566626282798514</v>
+        <v>0.8154940504714154</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -2312,39 +3872,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8169067926843391</v>
+        <v>0.7026830381867306</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -2353,16 +3913,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2380,48 +3940,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2430,16 +3990,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8361818406365928</v>
+        <v>0.8305472877194762</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -2448,21 +4008,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2471,16 +4031,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8796259846199806</v>
+        <v>0.8204035621703886</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -2489,21 +4049,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2512,16 +4072,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8416318090825931</v>
+        <v>0.8504824170268739</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -2530,21 +4090,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2553,16 +4113,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8400997003993825</v>
+        <v>0.8154940504714154</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -2571,39 +4131,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.807513565429254</v>
+      </c>
+      <c r="G6">
         <v>9</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8169067926843391</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -2612,16 +4172,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2639,48 +4199,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2689,16 +4249,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9142836681125341</v>
+        <v>0.9174035258869055</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -2707,21 +4267,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2730,16 +4290,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9123195971672412</v>
+        <v>0.9680194080266784</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -2748,21 +4308,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2771,16 +4331,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.900794394734123</v>
+        <v>0.9249882660082378</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -2789,21 +4349,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2812,16 +4372,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9108359200341081</v>
+        <v>0.9291077531456277</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -2830,39 +4390,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9266453158165856</v>
+        <v>0.910324169844355</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -2871,16 +4431,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
